--- a/UniMelb/Data/Descr-Relations_Rev.xlsx
+++ b/UniMelb/Data/Descr-Relations_Rev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="141">
   <si>
     <t>Baretto's</t>
   </si>
@@ -116,6 +116,9 @@
     <t>campus</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>on</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
   </si>
   <si>
     <t>north of</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>Lawn</t>
@@ -474,12 +480,24 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0033CCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -516,9 +534,17 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
@@ -527,9 +553,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -550,48 +573,48 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
-      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
+      <selection activeCell="A19" activeCellId="0" pane="topLeft" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.5411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="10.8313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.9490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.6196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="10.8705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -630,36 +653,36 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -749,70 +772,70 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -846,7 +869,7 @@
       <c r="D17" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -934,682 +957,793 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
-      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
+      <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="20.2352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="10.9882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="20.2352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.9921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="20.3137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.0274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="20.3137254901961"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <f aca="false">D1+1</f>
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="5" t="n">
         <v>2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="7" t="n">
         <f aca="false">D2+1</f>
         <v>3</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <f aca="false">D3+1</f>
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="5" t="n">
         <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="7" t="n">
         <f aca="false">D4+1</f>
         <v>5</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="7" t="n">
         <f aca="false">D5+1</f>
         <v>6</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="7">
-      <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="n">
         <f aca="false">D6+1</f>
         <v>7</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="7" t="n">
         <f aca="false">D7+1</f>
         <v>8</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="9">
-      <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="n">
         <f aca="false">D8+1</f>
         <v>9</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="7" t="n">
         <f aca="false">D9+1</f>
         <v>10</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="7" t="n">
         <f aca="false">D10+1</f>
         <v>11</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="n">
         <f aca="false">D11+1</f>
         <v>12</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <f aca="false">D12+1</f>
         <v>13</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <f aca="false">D13+1</f>
         <v>14</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="15">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <f aca="false">D14+1</f>
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="5" t="n">
         <v>7</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="28" outlineLevel="0" r="16">
-      <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="n">
         <f aca="false">D15+1</f>
         <v>16</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="3" t="n">
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <f aca="false">D16+1</f>
         <v>17</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="5" t="n">
         <v>8</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="29" outlineLevel="0" r="18">
-      <c r="A18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3" t="n">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7" t="n">
         <f aca="false">D17+1</f>
         <v>18</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="19">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="A19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <f aca="false">D18+1</f>
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="5" t="n">
         <v>8</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="20">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="A20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7" t="n">
         <f aca="false">D19+1</f>
         <v>20</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="7" t="n">
         <f aca="false">D20+1</f>
         <v>21</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="22">
-      <c r="A22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="3" t="n">
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="7" t="n">
         <f aca="false">D21+1</f>
         <v>22</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="7" t="n">
         <f aca="false">D22+1</f>
         <v>23</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="24">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="3" t="n">
+      <c r="A24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="7" t="n">
         <f aca="false">D23+1</f>
         <v>24</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="25">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="7" t="n">
         <f aca="false">D24+1</f>
         <v>25</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="7" t="n">
         <f aca="false">D25+1</f>
         <v>26</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="7" t="n">
         <f aca="false">D26+1</f>
         <v>27</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="28">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="7" t="n">
         <f aca="false">D27+1</f>
         <v>28</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="7" t="n">
         <f aca="false">D28+1</f>
         <v>29</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="27" outlineLevel="0" r="30">
-      <c r="A30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="7" t="n">
         <f aca="false">D29+1</f>
         <v>30</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="27" outlineLevel="0" r="31">
-      <c r="A31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="B31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="7" t="n">
         <f aca="false">D30+1</f>
         <v>31</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="32">
-      <c r="A32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="A32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="7" t="n">
         <f aca="false">D31+1</f>
         <v>32</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="33">
-      <c r="A33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="7" t="n">
         <f aca="false">D32+1</f>
         <v>33</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35" outlineLevel="0" r="34">
-      <c r="A34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="3" t="n">
+      <c r="A34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="7" t="n">
         <f aca="false">D33+1</f>
         <v>34</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="F34" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="35">
-      <c r="A35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="3" t="n">
+      <c r="C35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="7" t="n">
         <f aca="false">D34+1</f>
         <v>35</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="36">
-      <c r="A36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="3" t="n">
+      <c r="A36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="7" t="n">
         <f aca="false">D35+1</f>
         <v>36</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="37">
-      <c r="A37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="3" t="n">
+      <c r="A37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="7" t="n">
         <f aca="false">D36+1</f>
         <v>37</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1628,383 +1762,446 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A6" view="normal" windowProtection="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
-      <selection activeCell="C22" activeCellId="0" pane="topLeft" sqref="C22"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.6156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="10.8313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.8313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.4156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.7254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="10.8705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.8705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="31" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="31" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="C4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="29" outlineLevel="0" r="5">
-      <c r="A5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="7" t="n">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="7">
-      <c r="A7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="A7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="7" t="n">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="8">
-      <c r="A8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="A8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="9">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="5" t="n">
         <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="27" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="44" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="n">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="12">
-      <c r="A12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="5" t="n">
         <v>12</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="39" outlineLevel="0" r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="7" t="n">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="14">
-      <c r="A14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="n">
+      <c r="A14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="41" outlineLevel="0" r="15">
-      <c r="A15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="A15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="7" t="n">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="7" t="n">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="7" t="n">
         <v>17</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="7" t="n">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="7" t="n">
         <v>19</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="7" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="7" t="n">
         <v>21</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2023,664 +2220,778 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A18" view="normal" windowProtection="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
-      <selection activeCell="B43" activeCellId="0" pane="topLeft" sqref="B43"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
+      <selection activeCell="A16" activeCellId="0" pane="topLeft" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.4745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.9803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="10.8313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.8313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.5647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.5372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.0745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="10.8705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.8705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="5" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="3">
+      <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="5" t="n">
         <v>4</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="A4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="31" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7" t="n">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="31" outlineLevel="0" r="6">
-      <c r="A6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="A6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="31" outlineLevel="0" r="7">
-      <c r="A7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="B7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="7" t="n">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="31" outlineLevel="0" r="8">
-      <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="C8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="9">
-      <c r="A9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="C9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="7" t="n">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="10">
-      <c r="A10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="A10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="7" t="n">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="11">
-      <c r="A11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="C11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="7" t="n">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="37" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D12" s="7" t="n">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="15">
-      <c r="A15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="A15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="7" t="n">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="16">
-      <c r="A16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="A16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="7" t="n">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="17">
-      <c r="A17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="3" t="n">
+      <c r="B17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="7" t="n">
         <v>17</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="18">
-      <c r="A18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="3" t="n">
+      <c r="A18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="7" t="n">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="19">
-      <c r="A19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="19">
+      <c r="A19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="5" t="n">
         <v>13</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="20">
-      <c r="A20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="C20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="7" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D21" s="7" t="n">
         <v>21</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17" outlineLevel="0" r="22">
-      <c r="A22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="3" t="n">
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="22">
+      <c r="A22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="5" t="n">
         <v>15</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="23">
-      <c r="A23" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="B23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="7" t="n">
         <v>23</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="24">
-      <c r="A24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="3" t="n">
+      <c r="C24" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="7" t="n">
         <v>24</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="25">
-      <c r="A25" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="3" t="n">
+      <c r="C25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="7" t="n">
         <v>25</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="26">
-      <c r="A26" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="7" t="n">
         <v>26</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="27">
-      <c r="A27" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="3" t="n">
+      <c r="B27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="4" t="n">
         <v>27</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="28">
-      <c r="A28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="7" t="n">
         <v>28</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="29">
-      <c r="A29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="29">
+      <c r="A29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="5" t="n">
         <v>18</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="30">
-      <c r="A30" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="3" t="n">
+      <c r="C30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="7" t="n">
         <v>30</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="31">
-      <c r="A31" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="3" t="n">
+      <c r="C31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="7" t="n">
         <v>31</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="32">
-      <c r="A32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="3" t="n">
+      <c r="C32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="7" t="n">
         <v>32</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="33">
-      <c r="A33" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="3" t="n">
+      <c r="C33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="7" t="n">
         <v>33</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="34">
-      <c r="A34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="7" t="n">
         <v>34</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="35">
-      <c r="A35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="7" t="n">
         <v>35</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="36">
-      <c r="A36" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="5" t="n">
+      <c r="C36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="37">
-      <c r="A37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="5" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="19" outlineLevel="0" r="38">
-      <c r="A38" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="3" t="n">
+      <c r="F37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33" outlineLevel="0" r="38">
+      <c r="A38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="5" t="n">
         <v>21</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
